--- a/DevOps.xlsx
+++ b/DevOps.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\902483\Desktop\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\902483\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ubuntu" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>To Check the version of the ubuntu system</t>
   </si>
@@ -335,6 +335,9 @@
     <t>go to "/var/lib/jenkins/workspace/job5-Package/target#"
 ls -l
 war file will be listed</t>
+  </si>
+  <si>
+    <t>testtestesttste</t>
   </si>
 </sst>
 </file>
@@ -1258,6 +1261,9 @@
       <c r="B8" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
